--- a/Code/Results/Cases/Case_1_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_177/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9890018834688336</v>
+        <v>1.04179778676742</v>
       </c>
       <c r="D2">
-        <v>1.041256041685394</v>
+        <v>1.055958041975428</v>
       </c>
       <c r="E2">
-        <v>1.009806363649622</v>
+        <v>1.050527668635203</v>
       </c>
       <c r="F2">
-        <v>1.028498747933066</v>
+        <v>1.062669612866417</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057460320729313</v>
+        <v>1.042179269703827</v>
       </c>
       <c r="J2">
-        <v>1.011516597263386</v>
+        <v>1.046877056667101</v>
       </c>
       <c r="K2">
-        <v>1.052169046698372</v>
+        <v>1.058697071010305</v>
       </c>
       <c r="L2">
-        <v>1.021130750105489</v>
+        <v>1.053281697198533</v>
       </c>
       <c r="M2">
-        <v>1.039574829548614</v>
+        <v>1.065390332822686</v>
       </c>
       <c r="N2">
-        <v>1.007171820035385</v>
+        <v>1.019419468148993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9964875074133541</v>
+        <v>1.043301607060659</v>
       </c>
       <c r="D3">
-        <v>1.046092008198395</v>
+        <v>1.056857272790944</v>
       </c>
       <c r="E3">
-        <v>1.016022479683887</v>
+        <v>1.051809633695733</v>
       </c>
       <c r="F3">
-        <v>1.03472427097828</v>
+        <v>1.063913219580691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059432441768485</v>
+        <v>1.042430696081661</v>
       </c>
       <c r="J3">
-        <v>1.017074386683468</v>
+        <v>1.048024295307851</v>
       </c>
       <c r="K3">
-        <v>1.056167238216651</v>
+        <v>1.059409627607577</v>
       </c>
       <c r="L3">
-        <v>1.026454373730493</v>
+        <v>1.054374917207294</v>
       </c>
       <c r="M3">
-        <v>1.044931320390937</v>
+        <v>1.06644772329165</v>
       </c>
       <c r="N3">
-        <v>1.00907960391177</v>
+        <v>1.019807082982067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00118651947373</v>
+        <v>1.044273375442894</v>
       </c>
       <c r="D4">
-        <v>1.049120851080198</v>
+        <v>1.057436272003739</v>
       </c>
       <c r="E4">
-        <v>1.019929158954915</v>
+        <v>1.052637882456593</v>
       </c>
       <c r="F4">
-        <v>1.038631080975136</v>
+        <v>1.064715675237722</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060649830530892</v>
+        <v>1.042590352519559</v>
       </c>
       <c r="J4">
-        <v>1.020559922583155</v>
+        <v>1.048764954894508</v>
       </c>
       <c r="K4">
-        <v>1.058660485324007</v>
+        <v>1.059867208501922</v>
       </c>
       <c r="L4">
-        <v>1.029792862557052</v>
+        <v>1.05508048722249</v>
       </c>
       <c r="M4">
-        <v>1.048284590283337</v>
+        <v>1.067129126062385</v>
       </c>
       <c r="N4">
-        <v>1.010275201173585</v>
+        <v>1.020057130080317</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003129301550497</v>
+        <v>1.044681601671565</v>
       </c>
       <c r="D5">
-        <v>1.050371200301228</v>
+        <v>1.057678999674165</v>
       </c>
       <c r="E5">
-        <v>1.021545326139823</v>
+        <v>1.05298577932928</v>
       </c>
       <c r="F5">
-        <v>1.040245851958084</v>
+        <v>1.065052495149752</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061148070220772</v>
+        <v>1.042656746527012</v>
       </c>
       <c r="J5">
-        <v>1.022000131088655</v>
+        <v>1.049075930769813</v>
       </c>
       <c r="K5">
-        <v>1.059687116099406</v>
+        <v>1.060058741550729</v>
       </c>
       <c r="L5">
-        <v>1.031172229862784</v>
+        <v>1.05537667831089</v>
       </c>
       <c r="M5">
-        <v>1.049668600030202</v>
+        <v>1.067414921192908</v>
       </c>
       <c r="N5">
-        <v>1.010768996464546</v>
+        <v>1.020162068211609</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003453640490085</v>
+        <v>1.044750126955782</v>
       </c>
       <c r="D6">
-        <v>1.050579821002523</v>
+        <v>1.057719714684596</v>
       </c>
       <c r="E6">
-        <v>1.021815191669957</v>
+        <v>1.053044175353784</v>
       </c>
       <c r="F6">
-        <v>1.040515397285538</v>
+        <v>1.065109017588991</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061230946120547</v>
+        <v>1.042667851842725</v>
       </c>
       <c r="J6">
-        <v>1.022240514391666</v>
+        <v>1.049128121824703</v>
       </c>
       <c r="K6">
-        <v>1.059858255220257</v>
+        <v>1.060090851938607</v>
       </c>
       <c r="L6">
-        <v>1.031402452410809</v>
+        <v>1.055426384974842</v>
       </c>
       <c r="M6">
-        <v>1.049899509408629</v>
+        <v>1.067462868467641</v>
       </c>
       <c r="N6">
-        <v>1.010851401817839</v>
+        <v>1.020179677179295</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001212604979681</v>
+        <v>1.044278831372414</v>
       </c>
       <c r="D7">
-        <v>1.049137647264452</v>
+        <v>1.057439518026673</v>
       </c>
       <c r="E7">
-        <v>1.019950855362314</v>
+        <v>1.052642532240344</v>
       </c>
       <c r="F7">
-        <v>1.038652764459189</v>
+        <v>1.064720177929124</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060656540642214</v>
+        <v>1.042591242529839</v>
       </c>
       <c r="J7">
-        <v>1.020579263626442</v>
+        <v>1.048769111724945</v>
       </c>
       <c r="K7">
-        <v>1.058674286629747</v>
+        <v>1.059869771050766</v>
       </c>
       <c r="L7">
-        <v>1.02981138691411</v>
+        <v>1.055084446628814</v>
       </c>
       <c r="M7">
-        <v>1.048303182870532</v>
+        <v>1.067132947485818</v>
       </c>
       <c r="N7">
-        <v>1.010281833407258</v>
+        <v>1.020058532980611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9915628752761866</v>
+        <v>1.042306284062583</v>
       </c>
       <c r="D8">
-        <v>1.042911815874255</v>
+        <v>1.056262535241292</v>
       </c>
       <c r="E8">
-        <v>1.011931979002815</v>
+        <v>1.050961180219622</v>
       </c>
       <c r="F8">
-        <v>1.030628759497815</v>
+        <v>1.063090362067412</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058139280399332</v>
+        <v>1.04226486885355</v>
       </c>
       <c r="J8">
-        <v>1.013418683924808</v>
+        <v>1.047265122268919</v>
       </c>
       <c r="K8">
-        <v>1.053540276020934</v>
+        <v>1.058938606736776</v>
       </c>
       <c r="L8">
-        <v>1.022952713787858</v>
+        <v>1.053651534733051</v>
       </c>
       <c r="M8">
-        <v>1.041409231827456</v>
+        <v>1.065748264754625</v>
       </c>
       <c r="N8">
-        <v>1.007824908386027</v>
+        <v>1.019550623903352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9733530281163336</v>
+        <v>1.03882010371349</v>
       </c>
       <c r="D9">
-        <v>1.03112055216242</v>
+        <v>1.054166524582867</v>
       </c>
       <c r="E9">
-        <v>0.9968436926035041</v>
+        <v>1.047988494446116</v>
       </c>
       <c r="F9">
-        <v>1.015487153166558</v>
+        <v>1.06020106921922</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053228883076537</v>
+        <v>1.041666496425991</v>
       </c>
       <c r="J9">
-        <v>0.9998831694645128</v>
+        <v>1.044601808093295</v>
       </c>
       <c r="K9">
-        <v>1.043728120968377</v>
+        <v>1.057270957800778</v>
       </c>
       <c r="L9">
-        <v>1.009988187108014</v>
+        <v>1.051112453850222</v>
       </c>
       <c r="M9">
-        <v>1.028333861766075</v>
+        <v>1.063286669749315</v>
       </c>
       <c r="N9">
-        <v>1.003174364977157</v>
+        <v>1.01864968622846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9602480143986373</v>
+        <v>1.036488616429037</v>
       </c>
       <c r="D10">
-        <v>1.022626534567194</v>
+        <v>1.052754251629012</v>
       </c>
       <c r="E10">
-        <v>0.9860259151558473</v>
+        <v>1.045999723952488</v>
       </c>
       <c r="F10">
-        <v>1.004606343605034</v>
+        <v>1.058262943910182</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049596795599218</v>
+        <v>1.041251897202484</v>
       </c>
       <c r="J10">
-        <v>0.9901326812367024</v>
+        <v>1.04281714878332</v>
       </c>
       <c r="K10">
-        <v>1.036598933920389</v>
+        <v>1.056141038189564</v>
       </c>
       <c r="L10">
-        <v>1.000652144508849</v>
+        <v>1.049409971064497</v>
       </c>
       <c r="M10">
-        <v>1.018892924196887</v>
+        <v>1.061630840933837</v>
       </c>
       <c r="N10">
-        <v>0.9998211227256493</v>
+        <v>1.018044965684159</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9543037308516282</v>
+        <v>1.035477209999127</v>
       </c>
       <c r="D11">
-        <v>1.018777118544409</v>
+        <v>1.052139148972056</v>
       </c>
       <c r="E11">
-        <v>0.9811315672567185</v>
+        <v>1.045136839768178</v>
       </c>
       <c r="F11">
-        <v>0.9996788589468112</v>
+        <v>1.057420823631046</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047928754510952</v>
+        <v>1.041068639660371</v>
       </c>
       <c r="J11">
-        <v>0.985709334287835</v>
+        <v>1.0420421383635</v>
       </c>
       <c r="K11">
-        <v>1.033353405788425</v>
+        <v>1.055647435385866</v>
       </c>
       <c r="L11">
-        <v>0.9964183080701658</v>
+        <v>1.048670398774584</v>
       </c>
       <c r="M11">
-        <v>1.014606834059846</v>
+        <v>1.060910291773757</v>
       </c>
       <c r="N11">
-        <v>0.9982994368497682</v>
+        <v>1.017782120167218</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9520511888227503</v>
+        <v>1.035101240953575</v>
       </c>
       <c r="D12">
-        <v>1.017319431203458</v>
+        <v>1.051910131833074</v>
       </c>
       <c r="E12">
-        <v>0.9792790352563313</v>
+        <v>1.044816059653054</v>
       </c>
       <c r="F12">
-        <v>0.9978132143212562</v>
+        <v>1.057107581646069</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047293837991118</v>
+        <v>1.041000007630824</v>
       </c>
       <c r="J12">
-        <v>0.9840332001715367</v>
+        <v>1.041753922049831</v>
       </c>
       <c r="K12">
-        <v>1.032122174034493</v>
+        <v>1.055463434525219</v>
       </c>
       <c r="L12">
-        <v>0.9948142825591075</v>
+        <v>1.048395324667144</v>
       </c>
       <c r="M12">
-        <v>1.012982429955684</v>
+        <v>1.060642107314674</v>
       </c>
       <c r="N12">
-        <v>0.9977227807863114</v>
+        <v>1.017684335705338</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9525364547549613</v>
+        <v>1.035181900747484</v>
       </c>
       <c r="D13">
-        <v>1.017633406415973</v>
+        <v>1.051959281298516</v>
       </c>
       <c r="E13">
-        <v>0.9796780254148824</v>
+        <v>1.044884880235113</v>
       </c>
       <c r="F13">
-        <v>0.9982150522075599</v>
+        <v>1.057174793160382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047430741183606</v>
+        <v>1.041014754885176</v>
       </c>
       <c r="J13">
-        <v>0.9843942849145114</v>
+        <v>1.041815761046757</v>
       </c>
       <c r="K13">
-        <v>1.032387473141169</v>
+        <v>1.055502933010359</v>
       </c>
       <c r="L13">
-        <v>0.9951598184636711</v>
+        <v>1.048454345559992</v>
       </c>
       <c r="M13">
-        <v>1.013332379928362</v>
+        <v>1.060699658326322</v>
       </c>
       <c r="N13">
-        <v>0.9978470097401664</v>
+        <v>1.01770531771306</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9541184696454588</v>
+        <v>1.035446138199214</v>
       </c>
       <c r="D14">
-        <v>1.018657206639469</v>
+        <v>1.052120229389522</v>
       </c>
       <c r="E14">
-        <v>0.9809791598875314</v>
+        <v>1.045110329455921</v>
       </c>
       <c r="F14">
-        <v>0.9995253836030304</v>
+        <v>1.057394939979256</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047876591182796</v>
+        <v>1.041062977987075</v>
       </c>
       <c r="J14">
-        <v>0.9855714777910521</v>
+        <v>1.042018321345162</v>
       </c>
       <c r="K14">
-        <v>1.033252167748219</v>
+        <v>1.055632239191205</v>
       </c>
       <c r="L14">
-        <v>0.9962863757865643</v>
+        <v>1.048647668521538</v>
       </c>
       <c r="M14">
-        <v>1.014473236667336</v>
+        <v>1.060888134615797</v>
       </c>
       <c r="N14">
-        <v>0.9982520095521215</v>
+        <v>1.017774040384523</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9550871646759055</v>
+        <v>1.035608905235249</v>
       </c>
       <c r="D15">
-        <v>1.019284247447413</v>
+        <v>1.052219323094337</v>
       </c>
       <c r="E15">
-        <v>0.9817761573691394</v>
+        <v>1.045249200663493</v>
       </c>
       <c r="F15">
-        <v>1.000327943539237</v>
+        <v>1.057530521096781</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048149230045289</v>
+        <v>1.041092615324374</v>
       </c>
       <c r="J15">
-        <v>0.9862923061858531</v>
+        <v>1.042143079800515</v>
       </c>
       <c r="K15">
-        <v>1.033781469082202</v>
+        <v>1.055711822146015</v>
       </c>
       <c r="L15">
-        <v>0.9969762400123126</v>
+        <v>1.048766732773742</v>
       </c>
       <c r="M15">
-        <v>1.015171784747312</v>
+        <v>1.061004189319167</v>
       </c>
       <c r="N15">
-        <v>0.998499997222457</v>
+        <v>1.017816362495692</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9606365010449688</v>
+        <v>1.036555700279217</v>
       </c>
       <c r="D16">
-        <v>1.022878223358705</v>
+        <v>1.052794998312345</v>
       </c>
       <c r="E16">
-        <v>0.9863460634535544</v>
+        <v>1.046056953695081</v>
       </c>
       <c r="F16">
-        <v>1.004928573899614</v>
+        <v>1.058318771113626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049705406264655</v>
+        <v>1.041263980649551</v>
       </c>
       <c r="J16">
-        <v>0.9904217670747378</v>
+        <v>1.042868535923727</v>
       </c>
       <c r="K16">
-        <v>1.036810833623843</v>
+        <v>1.056173705307466</v>
       </c>
       <c r="L16">
-        <v>1.000928881816584</v>
+        <v>1.049459003298233</v>
       </c>
       <c r="M16">
-        <v>1.019172990041483</v>
+        <v>1.061678585893958</v>
       </c>
       <c r="N16">
-        <v>0.9999205641365029</v>
+        <v>1.018062388682768</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.964042550459652</v>
+        <v>1.037149096519543</v>
       </c>
       <c r="D17">
-        <v>1.025085335915453</v>
+        <v>1.053155143904759</v>
       </c>
       <c r="E17">
-        <v>0.9891543922610152</v>
+        <v>1.046563167470239</v>
       </c>
       <c r="F17">
-        <v>1.007754657986656</v>
+        <v>1.058812439501467</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050655359393067</v>
+        <v>1.04137047328609</v>
       </c>
       <c r="J17">
-        <v>0.9929562666803358</v>
+        <v>1.043322990984998</v>
       </c>
       <c r="K17">
-        <v>1.03866737402159</v>
+        <v>1.056462268514982</v>
       </c>
       <c r="L17">
-        <v>1.003355294672955</v>
+        <v>1.04989260360241</v>
       </c>
       <c r="M17">
-        <v>1.021628072530743</v>
+        <v>1.062100659323513</v>
       </c>
       <c r="N17">
-        <v>1.000792345321641</v>
+        <v>1.018216445890616</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9660035175578611</v>
+        <v>1.037495035918751</v>
       </c>
       <c r="D18">
-        <v>1.026356318761397</v>
+        <v>1.053364865600988</v>
       </c>
       <c r="E18">
-        <v>0.9907723842873252</v>
+        <v>1.046858266564651</v>
       </c>
       <c r="F18">
-        <v>1.009382436803865</v>
+        <v>1.059100108559394</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051200328336082</v>
+        <v>1.041432228504937</v>
       </c>
       <c r="J18">
-        <v>0.9944153850122361</v>
+        <v>1.043587851118747</v>
       </c>
       <c r="K18">
-        <v>1.039735104368849</v>
+        <v>1.056630163980171</v>
       </c>
       <c r="L18">
-        <v>1.0047523223647</v>
+        <v>1.050145285488473</v>
       </c>
       <c r="M18">
-        <v>1.023041158892631</v>
+        <v>1.062346504042754</v>
       </c>
       <c r="N18">
-        <v>1.001294185815411</v>
+        <v>1.018306208747212</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9666679075729326</v>
+        <v>1.037612962282902</v>
       </c>
       <c r="D19">
-        <v>1.026786970393926</v>
+        <v>1.05343631682487</v>
       </c>
       <c r="E19">
-        <v>0.991320759597488</v>
+        <v>1.046958859613972</v>
       </c>
       <c r="F19">
-        <v>1.009934050563128</v>
+        <v>1.059198149052581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051384629949547</v>
+        <v>1.0414532243868</v>
       </c>
       <c r="J19">
-        <v>0.9949097286685439</v>
+        <v>1.043678125160897</v>
       </c>
       <c r="K19">
-        <v>1.04009665496392</v>
+        <v>1.056687341079351</v>
       </c>
       <c r="L19">
-        <v>1.005225650869375</v>
+        <v>1.05023140466446</v>
       </c>
       <c r="M19">
-        <v>1.023519848853824</v>
+        <v>1.062430272610163</v>
       </c>
       <c r="N19">
-        <v>1.001464198851642</v>
+        <v>1.018336799322396</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9636798018357492</v>
+        <v>1.03708544925379</v>
       </c>
       <c r="D20">
-        <v>1.024850243003796</v>
+        <v>1.05311653941098</v>
       </c>
       <c r="E20">
-        <v>0.9888551801840473</v>
+        <v>1.046508872823642</v>
       </c>
       <c r="F20">
-        <v>1.007453599366977</v>
+        <v>1.05875950249048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050554388907976</v>
+        <v>1.041359084892561</v>
       </c>
       <c r="J20">
-        <v>0.9926863455457861</v>
+        <v>1.043274254625694</v>
       </c>
       <c r="K20">
-        <v>1.038469765516468</v>
+        <v>1.05643135172844</v>
       </c>
       <c r="L20">
-        <v>1.003096870104045</v>
+        <v>1.049846106206561</v>
       </c>
       <c r="M20">
-        <v>1.021366640272797</v>
+        <v>1.062055410411778</v>
       </c>
       <c r="N20">
-        <v>1.000699506320839</v>
+        <v>1.018199926965902</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9536538713638546</v>
+        <v>1.035368334866553</v>
       </c>
       <c r="D21">
-        <v>1.018356509664161</v>
+        <v>1.052072849135777</v>
       </c>
       <c r="E21">
-        <v>0.980596987953349</v>
+        <v>1.045043947685697</v>
       </c>
       <c r="F21">
-        <v>0.9991405249280183</v>
+        <v>1.05733012444647</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047745731469945</v>
+        <v>1.041048793009209</v>
       </c>
       <c r="J21">
-        <v>0.9852257626318051</v>
+        <v>1.041958681903025</v>
       </c>
       <c r="K21">
-        <v>1.032998262436583</v>
+        <v>1.055594179841925</v>
       </c>
       <c r="L21">
-        <v>0.9959555223573084</v>
+        <v>1.048590749821774</v>
       </c>
       <c r="M21">
-        <v>1.014138198643553</v>
+        <v>1.060832648004248</v>
       </c>
       <c r="N21">
-        <v>0.998133071209154</v>
+        <v>1.017753807481454</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9470898652871115</v>
+        <v>1.034287048211007</v>
       </c>
       <c r="D22">
-        <v>1.014111315652456</v>
+        <v>1.051413510258253</v>
       </c>
       <c r="E22">
-        <v>0.9752030406324047</v>
+        <v>1.044121346106947</v>
       </c>
       <c r="F22">
-        <v>0.9937074678495957</v>
+        <v>1.056428863390099</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04589051219587</v>
+        <v>1.040850447931863</v>
       </c>
       <c r="J22">
-        <v>0.9803417422696193</v>
+        <v>1.041129541860778</v>
       </c>
       <c r="K22">
-        <v>1.029408313802367</v>
+        <v>1.055064026758866</v>
       </c>
       <c r="L22">
-        <v>0.991282272035294</v>
+        <v>1.047799348474138</v>
       </c>
       <c r="M22">
-        <v>1.009404620251868</v>
+        <v>1.060060719560959</v>
       </c>
       <c r="N22">
-        <v>0.9964527215193661</v>
+        <v>1.017472434375117</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9505957468107938</v>
+        <v>1.034860419810664</v>
       </c>
       <c r="D23">
-        <v>1.016377928171245</v>
+        <v>1.051763335887383</v>
       </c>
       <c r="E23">
-        <v>0.9780826944394422</v>
+        <v>1.044610583155584</v>
       </c>
       <c r="F23">
-        <v>0.9966082616225959</v>
+        <v>1.056906882888361</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046882836761502</v>
+        <v>1.04095590307249</v>
       </c>
       <c r="J23">
-        <v>0.9829502326257564</v>
+        <v>1.041569275149479</v>
       </c>
       <c r="K23">
-        <v>1.031326305734627</v>
+        <v>1.055345431110362</v>
       </c>
       <c r="L23">
-        <v>0.9937779989127987</v>
+        <v>1.048219087079981</v>
       </c>
       <c r="M23">
-        <v>1.011932833124653</v>
+        <v>1.060470231705221</v>
       </c>
       <c r="N23">
-        <v>0.9973501880592166</v>
+        <v>1.017621679698923</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9638437915195065</v>
+        <v>1.037114209265608</v>
       </c>
       <c r="D24">
-        <v>1.024956521862519</v>
+        <v>1.053133984186874</v>
       </c>
       <c r="E24">
-        <v>0.9889904430092409</v>
+        <v>1.046533406753196</v>
       </c>
       <c r="F24">
-        <v>1.007589698330879</v>
+        <v>1.058783423310703</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050600041240731</v>
+        <v>1.041364231930374</v>
       </c>
       <c r="J24">
-        <v>0.9928083704482485</v>
+        <v>1.043296277155744</v>
       </c>
       <c r="K24">
-        <v>1.038559102998402</v>
+        <v>1.056445322987196</v>
       </c>
       <c r="L24">
-        <v>1.003213697268811</v>
+        <v>1.04986711708875</v>
       </c>
       <c r="M24">
-        <v>1.021484828538463</v>
+        <v>1.062075857509245</v>
       </c>
       <c r="N24">
-        <v>1.000741476763042</v>
+        <v>1.018207391453993</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.97821838979281</v>
+        <v>1.039722630743139</v>
       </c>
       <c r="D25">
-        <v>1.034273958195942</v>
+        <v>1.054711015752663</v>
       </c>
       <c r="E25">
-        <v>1.000868925404017</v>
+        <v>1.048758212693281</v>
       </c>
       <c r="F25">
-        <v>1.019531208997459</v>
+        <v>1.060950103685747</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054558371936087</v>
+        <v>1.041823951027067</v>
       </c>
       <c r="J25">
-        <v>1.003501704019961</v>
+        <v>1.045291922279703</v>
       </c>
       <c r="K25">
-        <v>1.04636253321321</v>
+        <v>1.057705275493183</v>
       </c>
       <c r="L25">
-        <v>1.013453767383916</v>
+        <v>1.051770567219223</v>
       </c>
       <c r="M25">
-        <v>1.031833709421397</v>
+        <v>1.063925635853634</v>
       </c>
       <c r="N25">
-        <v>1.004418244069549</v>
+        <v>1.018883314388184</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_177/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04179778676742</v>
+        <v>0.9890018834688333</v>
       </c>
       <c r="D2">
-        <v>1.055958041975428</v>
+        <v>1.041256041685394</v>
       </c>
       <c r="E2">
-        <v>1.050527668635203</v>
+        <v>1.009806363649622</v>
       </c>
       <c r="F2">
-        <v>1.062669612866417</v>
+        <v>1.028498747933065</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042179269703827</v>
+        <v>1.057460320729313</v>
       </c>
       <c r="J2">
-        <v>1.046877056667101</v>
+        <v>1.011516597263386</v>
       </c>
       <c r="K2">
-        <v>1.058697071010305</v>
+        <v>1.052169046698372</v>
       </c>
       <c r="L2">
-        <v>1.053281697198533</v>
+        <v>1.021130750105488</v>
       </c>
       <c r="M2">
-        <v>1.065390332822686</v>
+        <v>1.039574829548614</v>
       </c>
       <c r="N2">
-        <v>1.019419468148993</v>
+        <v>1.007171820035385</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043301607060659</v>
+        <v>0.9964875074133529</v>
       </c>
       <c r="D3">
-        <v>1.056857272790944</v>
+        <v>1.046092008198395</v>
       </c>
       <c r="E3">
-        <v>1.051809633695733</v>
+        <v>1.016022479683886</v>
       </c>
       <c r="F3">
-        <v>1.063913219580691</v>
+        <v>1.034724270978278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042430696081661</v>
+        <v>1.059432441768484</v>
       </c>
       <c r="J3">
-        <v>1.048024295307851</v>
+        <v>1.017074386683466</v>
       </c>
       <c r="K3">
-        <v>1.059409627607577</v>
+        <v>1.05616723821665</v>
       </c>
       <c r="L3">
-        <v>1.054374917207294</v>
+        <v>1.026454373730492</v>
       </c>
       <c r="M3">
-        <v>1.06644772329165</v>
+        <v>1.044931320390935</v>
       </c>
       <c r="N3">
-        <v>1.019807082982067</v>
+        <v>1.009079603911769</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044273375442894</v>
+        <v>1.00118651947373</v>
       </c>
       <c r="D4">
-        <v>1.057436272003739</v>
+        <v>1.049120851080197</v>
       </c>
       <c r="E4">
-        <v>1.052637882456593</v>
+        <v>1.019929158954915</v>
       </c>
       <c r="F4">
-        <v>1.064715675237722</v>
+        <v>1.038631080975135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042590352519559</v>
+        <v>1.060649830530891</v>
       </c>
       <c r="J4">
-        <v>1.048764954894508</v>
+        <v>1.020559922583154</v>
       </c>
       <c r="K4">
-        <v>1.059867208501922</v>
+        <v>1.058660485324007</v>
       </c>
       <c r="L4">
-        <v>1.05508048722249</v>
+        <v>1.029792862557051</v>
       </c>
       <c r="M4">
-        <v>1.067129126062385</v>
+        <v>1.048284590283336</v>
       </c>
       <c r="N4">
-        <v>1.020057130080317</v>
+        <v>1.010275201173584</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044681601671565</v>
+        <v>1.003129301550497</v>
       </c>
       <c r="D5">
-        <v>1.057678999674165</v>
+        <v>1.050371200301227</v>
       </c>
       <c r="E5">
-        <v>1.05298577932928</v>
+        <v>1.021545326139822</v>
       </c>
       <c r="F5">
-        <v>1.065052495149752</v>
+        <v>1.040245851958084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042656746527012</v>
+        <v>1.061148070220771</v>
       </c>
       <c r="J5">
-        <v>1.049075930769813</v>
+        <v>1.022000131088654</v>
       </c>
       <c r="K5">
-        <v>1.060058741550729</v>
+        <v>1.059687116099406</v>
       </c>
       <c r="L5">
-        <v>1.05537667831089</v>
+        <v>1.031172229862784</v>
       </c>
       <c r="M5">
-        <v>1.067414921192908</v>
+        <v>1.049668600030202</v>
       </c>
       <c r="N5">
-        <v>1.020162068211609</v>
+        <v>1.010768996464546</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044750126955782</v>
+        <v>1.003453640490084</v>
       </c>
       <c r="D6">
-        <v>1.057719714684596</v>
+        <v>1.050579821002522</v>
       </c>
       <c r="E6">
-        <v>1.053044175353784</v>
+        <v>1.021815191669956</v>
       </c>
       <c r="F6">
-        <v>1.065109017588991</v>
+        <v>1.040515397285537</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042667851842725</v>
+        <v>1.061230946120547</v>
       </c>
       <c r="J6">
-        <v>1.049128121824703</v>
+        <v>1.022240514391665</v>
       </c>
       <c r="K6">
-        <v>1.060090851938607</v>
+        <v>1.059858255220257</v>
       </c>
       <c r="L6">
-        <v>1.055426384974842</v>
+        <v>1.031402452410809</v>
       </c>
       <c r="M6">
-        <v>1.067462868467641</v>
+        <v>1.049899509408628</v>
       </c>
       <c r="N6">
-        <v>1.020179677179295</v>
+        <v>1.010851401817839</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044278831372414</v>
+        <v>1.00121260497968</v>
       </c>
       <c r="D7">
-        <v>1.057439518026673</v>
+        <v>1.049137647264451</v>
       </c>
       <c r="E7">
-        <v>1.052642532240344</v>
+        <v>1.019950855362313</v>
       </c>
       <c r="F7">
-        <v>1.064720177929124</v>
+        <v>1.038652764459189</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042591242529839</v>
+        <v>1.060656540642214</v>
       </c>
       <c r="J7">
-        <v>1.048769111724945</v>
+        <v>1.020579263626442</v>
       </c>
       <c r="K7">
-        <v>1.059869771050766</v>
+        <v>1.058674286629747</v>
       </c>
       <c r="L7">
-        <v>1.055084446628814</v>
+        <v>1.02981138691411</v>
       </c>
       <c r="M7">
-        <v>1.067132947485818</v>
+        <v>1.048303182870532</v>
       </c>
       <c r="N7">
-        <v>1.020058532980611</v>
+        <v>1.010281833407258</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042306284062583</v>
+        <v>0.9915628752761865</v>
       </c>
       <c r="D8">
-        <v>1.056262535241292</v>
+        <v>1.042911815874255</v>
       </c>
       <c r="E8">
-        <v>1.050961180219622</v>
+        <v>1.011931979002815</v>
       </c>
       <c r="F8">
-        <v>1.063090362067412</v>
+        <v>1.030628759497815</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04226486885355</v>
+        <v>1.058139280399332</v>
       </c>
       <c r="J8">
-        <v>1.047265122268919</v>
+        <v>1.013418683924808</v>
       </c>
       <c r="K8">
-        <v>1.058938606736776</v>
+        <v>1.053540276020934</v>
       </c>
       <c r="L8">
-        <v>1.053651534733051</v>
+        <v>1.022952713787858</v>
       </c>
       <c r="M8">
-        <v>1.065748264754625</v>
+        <v>1.041409231827456</v>
       </c>
       <c r="N8">
-        <v>1.019550623903352</v>
+        <v>1.007824908386027</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03882010371349</v>
+        <v>0.9733530281163338</v>
       </c>
       <c r="D9">
-        <v>1.054166524582867</v>
+        <v>1.03112055216242</v>
       </c>
       <c r="E9">
-        <v>1.047988494446116</v>
+        <v>0.9968436926035039</v>
       </c>
       <c r="F9">
-        <v>1.06020106921922</v>
+        <v>1.015487153166558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041666496425991</v>
+        <v>1.053228883076537</v>
       </c>
       <c r="J9">
-        <v>1.044601808093295</v>
+        <v>0.9998831694645129</v>
       </c>
       <c r="K9">
-        <v>1.057270957800778</v>
+        <v>1.043728120968377</v>
       </c>
       <c r="L9">
-        <v>1.051112453850222</v>
+        <v>1.009988187108014</v>
       </c>
       <c r="M9">
-        <v>1.063286669749315</v>
+        <v>1.028333861766075</v>
       </c>
       <c r="N9">
-        <v>1.01864968622846</v>
+        <v>1.003174364977157</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036488616429037</v>
+        <v>0.9602480143986376</v>
       </c>
       <c r="D10">
-        <v>1.052754251629012</v>
+        <v>1.022626534567193</v>
       </c>
       <c r="E10">
-        <v>1.045999723952488</v>
+        <v>0.9860259151558475</v>
       </c>
       <c r="F10">
-        <v>1.058262943910182</v>
+        <v>1.004606343605034</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041251897202484</v>
+        <v>1.049596795599218</v>
       </c>
       <c r="J10">
-        <v>1.04281714878332</v>
+        <v>0.9901326812367027</v>
       </c>
       <c r="K10">
-        <v>1.056141038189564</v>
+        <v>1.036598933920389</v>
       </c>
       <c r="L10">
-        <v>1.049409971064497</v>
+        <v>1.000652144508849</v>
       </c>
       <c r="M10">
-        <v>1.061630840933837</v>
+        <v>1.018892924196888</v>
       </c>
       <c r="N10">
-        <v>1.018044965684159</v>
+        <v>0.9998211227256495</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035477209999127</v>
+        <v>0.9543037308516286</v>
       </c>
       <c r="D11">
-        <v>1.052139148972056</v>
+        <v>1.018777118544409</v>
       </c>
       <c r="E11">
-        <v>1.045136839768178</v>
+        <v>0.9811315672567189</v>
       </c>
       <c r="F11">
-        <v>1.057420823631046</v>
+        <v>0.9996788589468115</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041068639660371</v>
+        <v>1.047928754510953</v>
       </c>
       <c r="J11">
-        <v>1.0420421383635</v>
+        <v>0.9857093342878354</v>
       </c>
       <c r="K11">
-        <v>1.055647435385866</v>
+        <v>1.033353405788425</v>
       </c>
       <c r="L11">
-        <v>1.048670398774584</v>
+        <v>0.9964183080701663</v>
       </c>
       <c r="M11">
-        <v>1.060910291773757</v>
+        <v>1.014606834059846</v>
       </c>
       <c r="N11">
-        <v>1.017782120167218</v>
+        <v>0.9982994368497685</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035101240953575</v>
+        <v>0.9520511888227506</v>
       </c>
       <c r="D12">
-        <v>1.051910131833074</v>
+        <v>1.017319431203458</v>
       </c>
       <c r="E12">
-        <v>1.044816059653054</v>
+        <v>0.9792790352563322</v>
       </c>
       <c r="F12">
-        <v>1.057107581646069</v>
+        <v>0.9978132143212567</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041000007630824</v>
+        <v>1.047293837991118</v>
       </c>
       <c r="J12">
-        <v>1.041753922049831</v>
+        <v>0.9840332001715371</v>
       </c>
       <c r="K12">
-        <v>1.055463434525219</v>
+        <v>1.032122174034494</v>
       </c>
       <c r="L12">
-        <v>1.048395324667144</v>
+        <v>0.9948142825591081</v>
       </c>
       <c r="M12">
-        <v>1.060642107314674</v>
+        <v>1.012982429955684</v>
       </c>
       <c r="N12">
-        <v>1.017684335705338</v>
+        <v>0.9977227807863113</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035181900747484</v>
+        <v>0.9525364547549603</v>
       </c>
       <c r="D13">
-        <v>1.051959281298516</v>
+        <v>1.017633406415972</v>
       </c>
       <c r="E13">
-        <v>1.044884880235113</v>
+        <v>0.9796780254148812</v>
       </c>
       <c r="F13">
-        <v>1.057174793160382</v>
+        <v>0.9982150522075589</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041014754885176</v>
+        <v>1.047430741183606</v>
       </c>
       <c r="J13">
-        <v>1.041815761046757</v>
+        <v>0.9843942849145102</v>
       </c>
       <c r="K13">
-        <v>1.055502933010359</v>
+        <v>1.032387473141168</v>
       </c>
       <c r="L13">
-        <v>1.048454345559992</v>
+        <v>0.9951598184636699</v>
       </c>
       <c r="M13">
-        <v>1.060699658326322</v>
+        <v>1.013332379928361</v>
       </c>
       <c r="N13">
-        <v>1.01770531771306</v>
+        <v>0.9978470097401659</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035446138199214</v>
+        <v>0.9541184696454604</v>
       </c>
       <c r="D14">
-        <v>1.052120229389522</v>
+        <v>1.018657206639469</v>
       </c>
       <c r="E14">
-        <v>1.045110329455921</v>
+        <v>0.9809791598875334</v>
       </c>
       <c r="F14">
-        <v>1.057394939979256</v>
+        <v>0.9995253836030319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041062977987075</v>
+        <v>1.047876591182797</v>
       </c>
       <c r="J14">
-        <v>1.042018321345162</v>
+        <v>0.9855714777910538</v>
       </c>
       <c r="K14">
-        <v>1.055632239191205</v>
+        <v>1.03325216774822</v>
       </c>
       <c r="L14">
-        <v>1.048647668521538</v>
+        <v>0.9962863757865662</v>
       </c>
       <c r="M14">
-        <v>1.060888134615797</v>
+        <v>1.014473236667338</v>
       </c>
       <c r="N14">
-        <v>1.017774040384523</v>
+        <v>0.9982520095521221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035608905235249</v>
+        <v>0.9550871646759044</v>
       </c>
       <c r="D15">
-        <v>1.052219323094337</v>
+        <v>1.019284247447412</v>
       </c>
       <c r="E15">
-        <v>1.045249200663493</v>
+        <v>0.9817761573691379</v>
       </c>
       <c r="F15">
-        <v>1.057530521096781</v>
+        <v>1.000327943539236</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041092615324374</v>
+        <v>1.048149230045289</v>
       </c>
       <c r="J15">
-        <v>1.042143079800515</v>
+        <v>0.9862923061858518</v>
       </c>
       <c r="K15">
-        <v>1.055711822146015</v>
+        <v>1.033781469082201</v>
       </c>
       <c r="L15">
-        <v>1.048766732773742</v>
+        <v>0.9969762400123112</v>
       </c>
       <c r="M15">
-        <v>1.061004189319167</v>
+        <v>1.015171784747311</v>
       </c>
       <c r="N15">
-        <v>1.017816362495692</v>
+        <v>0.9984999972224566</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036555700279217</v>
+        <v>0.9606365010449692</v>
       </c>
       <c r="D16">
-        <v>1.052794998312345</v>
+        <v>1.022878223358706</v>
       </c>
       <c r="E16">
-        <v>1.046056953695081</v>
+        <v>0.986346063453555</v>
       </c>
       <c r="F16">
-        <v>1.058318771113626</v>
+        <v>1.004928573899615</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041263980649551</v>
+        <v>1.049705406264656</v>
       </c>
       <c r="J16">
-        <v>1.042868535923727</v>
+        <v>0.9904217670747384</v>
       </c>
       <c r="K16">
-        <v>1.056173705307466</v>
+        <v>1.036810833623844</v>
       </c>
       <c r="L16">
-        <v>1.049459003298233</v>
+        <v>1.000928881816585</v>
       </c>
       <c r="M16">
-        <v>1.061678585893958</v>
+        <v>1.019172990041484</v>
       </c>
       <c r="N16">
-        <v>1.018062388682768</v>
+        <v>0.9999205641365032</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037149096519543</v>
+        <v>0.9640425504596516</v>
       </c>
       <c r="D17">
-        <v>1.053155143904759</v>
+        <v>1.025085335915453</v>
       </c>
       <c r="E17">
-        <v>1.046563167470239</v>
+        <v>0.9891543922610151</v>
       </c>
       <c r="F17">
-        <v>1.058812439501467</v>
+        <v>1.007754657986656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04137047328609</v>
+        <v>1.050655359393067</v>
       </c>
       <c r="J17">
-        <v>1.043322990984998</v>
+        <v>0.9929562666803355</v>
       </c>
       <c r="K17">
-        <v>1.056462268514982</v>
+        <v>1.03866737402159</v>
       </c>
       <c r="L17">
-        <v>1.04989260360241</v>
+        <v>1.003355294672955</v>
       </c>
       <c r="M17">
-        <v>1.062100659323513</v>
+        <v>1.021628072530742</v>
       </c>
       <c r="N17">
-        <v>1.018216445890616</v>
+        <v>1.000792345321641</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037495035918751</v>
+        <v>0.9660035175578604</v>
       </c>
       <c r="D18">
-        <v>1.053364865600988</v>
+        <v>1.026356318761397</v>
       </c>
       <c r="E18">
-        <v>1.046858266564651</v>
+        <v>0.9907723842873246</v>
       </c>
       <c r="F18">
-        <v>1.059100108559394</v>
+        <v>1.009382436803865</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041432228504937</v>
+        <v>1.051200328336082</v>
       </c>
       <c r="J18">
-        <v>1.043587851118747</v>
+        <v>0.9944153850122356</v>
       </c>
       <c r="K18">
-        <v>1.056630163980171</v>
+        <v>1.039735104368849</v>
       </c>
       <c r="L18">
-        <v>1.050145285488473</v>
+        <v>1.0047523223647</v>
       </c>
       <c r="M18">
-        <v>1.062346504042754</v>
+        <v>1.02304115889263</v>
       </c>
       <c r="N18">
-        <v>1.018306208747212</v>
+        <v>1.001294185815411</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037612962282902</v>
+        <v>0.9666679075729315</v>
       </c>
       <c r="D19">
-        <v>1.05343631682487</v>
+        <v>1.026786970393925</v>
       </c>
       <c r="E19">
-        <v>1.046958859613972</v>
+        <v>0.9913207595974868</v>
       </c>
       <c r="F19">
-        <v>1.059198149052581</v>
+        <v>1.009934050563126</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0414532243868</v>
+        <v>1.051384629949546</v>
       </c>
       <c r="J19">
-        <v>1.043678125160897</v>
+        <v>0.9949097286685428</v>
       </c>
       <c r="K19">
-        <v>1.056687341079351</v>
+        <v>1.040096654963919</v>
       </c>
       <c r="L19">
-        <v>1.05023140466446</v>
+        <v>1.005225650869374</v>
       </c>
       <c r="M19">
-        <v>1.062430272610163</v>
+        <v>1.023519848853823</v>
       </c>
       <c r="N19">
-        <v>1.018336799322396</v>
+        <v>1.001464198851642</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03708544925379</v>
+        <v>0.9636798018357492</v>
       </c>
       <c r="D20">
-        <v>1.05311653941098</v>
+        <v>1.024850243003796</v>
       </c>
       <c r="E20">
-        <v>1.046508872823642</v>
+        <v>0.9888551801840476</v>
       </c>
       <c r="F20">
-        <v>1.05875950249048</v>
+        <v>1.007453599366977</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041359084892561</v>
+        <v>1.050554388907976</v>
       </c>
       <c r="J20">
-        <v>1.043274254625694</v>
+        <v>0.9926863455457861</v>
       </c>
       <c r="K20">
-        <v>1.05643135172844</v>
+        <v>1.038469765516468</v>
       </c>
       <c r="L20">
-        <v>1.049846106206561</v>
+        <v>1.003096870104045</v>
       </c>
       <c r="M20">
-        <v>1.062055410411778</v>
+        <v>1.021366640272797</v>
       </c>
       <c r="N20">
-        <v>1.018199926965902</v>
+        <v>1.000699506320839</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035368334866553</v>
+        <v>0.9536538713638547</v>
       </c>
       <c r="D21">
-        <v>1.052072849135777</v>
+        <v>1.018356509664161</v>
       </c>
       <c r="E21">
-        <v>1.045043947685697</v>
+        <v>0.9805969879533495</v>
       </c>
       <c r="F21">
-        <v>1.05733012444647</v>
+        <v>0.9991405249280189</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041048793009209</v>
+        <v>1.047745731469945</v>
       </c>
       <c r="J21">
-        <v>1.041958681903025</v>
+        <v>0.9852257626318055</v>
       </c>
       <c r="K21">
-        <v>1.055594179841925</v>
+        <v>1.032998262436583</v>
       </c>
       <c r="L21">
-        <v>1.048590749821774</v>
+        <v>0.9959555223573088</v>
       </c>
       <c r="M21">
-        <v>1.060832648004248</v>
+        <v>1.014138198643554</v>
       </c>
       <c r="N21">
-        <v>1.017753807481454</v>
+        <v>0.998133071209154</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034287048211007</v>
+        <v>0.9470898652871103</v>
       </c>
       <c r="D22">
-        <v>1.051413510258253</v>
+        <v>1.014111315652454</v>
       </c>
       <c r="E22">
-        <v>1.044121346106947</v>
+        <v>0.9752030406324029</v>
       </c>
       <c r="F22">
-        <v>1.056428863390099</v>
+        <v>0.9937074678495942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040850447931863</v>
+        <v>1.045890512195869</v>
       </c>
       <c r="J22">
-        <v>1.041129541860778</v>
+        <v>0.980341742269618</v>
       </c>
       <c r="K22">
-        <v>1.055064026758866</v>
+        <v>1.029408313802366</v>
       </c>
       <c r="L22">
-        <v>1.047799348474138</v>
+        <v>0.9912822720352923</v>
       </c>
       <c r="M22">
-        <v>1.060060719560959</v>
+        <v>1.009404620251867</v>
       </c>
       <c r="N22">
-        <v>1.017472434375117</v>
+        <v>0.9964527215193657</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034860419810664</v>
+        <v>0.950595746810792</v>
       </c>
       <c r="D23">
-        <v>1.051763335887383</v>
+        <v>1.016377928171244</v>
       </c>
       <c r="E23">
-        <v>1.044610583155584</v>
+        <v>0.97808269443944</v>
       </c>
       <c r="F23">
-        <v>1.056906882888361</v>
+        <v>0.9966082616225935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04095590307249</v>
+        <v>1.046882836761501</v>
       </c>
       <c r="J23">
-        <v>1.041569275149479</v>
+        <v>0.9829502326257545</v>
       </c>
       <c r="K23">
-        <v>1.055345431110362</v>
+        <v>1.031326305734626</v>
       </c>
       <c r="L23">
-        <v>1.048219087079981</v>
+        <v>0.9937779989127966</v>
       </c>
       <c r="M23">
-        <v>1.060470231705221</v>
+        <v>1.01193283312465</v>
       </c>
       <c r="N23">
-        <v>1.017621679698923</v>
+        <v>0.997350188059216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037114209265608</v>
+        <v>0.9638437915195062</v>
       </c>
       <c r="D24">
-        <v>1.053133984186874</v>
+        <v>1.024956521862519</v>
       </c>
       <c r="E24">
-        <v>1.046533406753196</v>
+        <v>0.9889904430092405</v>
       </c>
       <c r="F24">
-        <v>1.058783423310703</v>
+        <v>1.007589698330879</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041364231930374</v>
+        <v>1.05060004124073</v>
       </c>
       <c r="J24">
-        <v>1.043296277155744</v>
+        <v>0.9928083704482483</v>
       </c>
       <c r="K24">
-        <v>1.056445322987196</v>
+        <v>1.038559102998402</v>
       </c>
       <c r="L24">
-        <v>1.04986711708875</v>
+        <v>1.003213697268811</v>
       </c>
       <c r="M24">
-        <v>1.062075857509245</v>
+        <v>1.021484828538462</v>
       </c>
       <c r="N24">
-        <v>1.018207391453993</v>
+        <v>1.000741476763042</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039722630743139</v>
+        <v>0.9782183897928102</v>
       </c>
       <c r="D25">
-        <v>1.054711015752663</v>
+        <v>1.034273958195941</v>
       </c>
       <c r="E25">
-        <v>1.048758212693281</v>
+        <v>1.000868925404018</v>
       </c>
       <c r="F25">
-        <v>1.060950103685747</v>
+        <v>1.019531208997459</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041823951027067</v>
+        <v>1.054558371936087</v>
       </c>
       <c r="J25">
-        <v>1.045291922279703</v>
+        <v>1.003501704019961</v>
       </c>
       <c r="K25">
-        <v>1.057705275493183</v>
+        <v>1.04636253321321</v>
       </c>
       <c r="L25">
-        <v>1.051770567219223</v>
+        <v>1.013453767383916</v>
       </c>
       <c r="M25">
-        <v>1.063925635853634</v>
+        <v>1.031833709421397</v>
       </c>
       <c r="N25">
-        <v>1.018883314388184</v>
+        <v>1.004418244069549</v>
       </c>
     </row>
   </sheetData>
